--- a/docs/source/Testing-Worksheet.xlsx
+++ b/docs/source/Testing-Worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethwsayers/Development/linux-foundation/branches/main/documentation/docs/source/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethwsayers/Development/linux-foundation/branches/develop/documentation-develop/docs/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD4B744F-54E7-FA4E-BEF0-71290199AECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A59C12-F9DE-FB4C-AED4-23C7CC61B97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing-Worksheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>Organization</t>
   </si>
@@ -83,9 +83,6 @@
     <t>New Draft</t>
   </si>
   <si>
-    <t>(There is some situation where trying this didn't work.)</t>
-  </si>
-  <si>
     <t>Carrier</t>
   </si>
   <si>
@@ -98,13 +95,7 @@
     <t>AAIS</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Like recorded and appears on data call list</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Issue Data Call</t>
@@ -993,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,12 +1000,12 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1029,18 +1020,18 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1054,16 +1045,13 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1077,16 +1065,13 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1100,65 +1085,53 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1167,21 +1140,18 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1190,145 +1160,130 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
